--- a/data/pca/factorExposure/factorExposure_2019-01-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1020064974207311</v>
+        <v>0.06705474362629978</v>
       </c>
       <c r="C2">
-        <v>0.007034847479953147</v>
+        <v>0.03458961499348999</v>
       </c>
       <c r="D2">
-        <v>0.07344708419658309</v>
+        <v>0.01860859514284211</v>
       </c>
       <c r="E2">
-        <v>0.01598044190775954</v>
+        <v>-0.03835528831614573</v>
       </c>
       <c r="F2">
-        <v>0.135062228163785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.134962456872458</v>
+      </c>
+      <c r="G2">
+        <v>0.04668248842055043</v>
+      </c>
+      <c r="H2">
+        <v>-0.05965382577782556</v>
+      </c>
+      <c r="I2">
+        <v>0.110823648178882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2157289721015066</v>
+        <v>0.1569453248235553</v>
       </c>
       <c r="C3">
-        <v>-0.1537291521261024</v>
+        <v>0.1114963628982388</v>
       </c>
       <c r="D3">
-        <v>0.07781483196317197</v>
+        <v>-0.004654202449665115</v>
       </c>
       <c r="E3">
-        <v>-0.00631674665690322</v>
+        <v>0.02201153894171496</v>
       </c>
       <c r="F3">
-        <v>0.3627067620094129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.394083404771669</v>
+      </c>
+      <c r="G3">
+        <v>0.2547449553027928</v>
+      </c>
+      <c r="H3">
+        <v>-0.1088750499446778</v>
+      </c>
+      <c r="I3">
+        <v>0.3652258458939956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09460622276540655</v>
+        <v>0.07099388693187672</v>
       </c>
       <c r="C4">
-        <v>-0.0310334414215861</v>
+        <v>0.0522054644821214</v>
       </c>
       <c r="D4">
-        <v>0.05901039689460229</v>
+        <v>-0.01556579619806178</v>
       </c>
       <c r="E4">
-        <v>-0.03191510081190343</v>
+        <v>-0.03793982725855892</v>
       </c>
       <c r="F4">
-        <v>0.07126298556812412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.08125036294893521</v>
+      </c>
+      <c r="G4">
+        <v>0.02111531578458021</v>
+      </c>
+      <c r="H4">
+        <v>-0.04588701513395965</v>
+      </c>
+      <c r="I4">
+        <v>0.05666830686852402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02553442135400008</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01040571889792804</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.004343379894255075</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005326286739831878</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.006299955877001265</v>
+      </c>
+      <c r="G6">
+        <v>-0.01732792451547951</v>
+      </c>
+      <c r="H6">
+        <v>0.01955254236966871</v>
+      </c>
+      <c r="I6">
+        <v>-0.0009597323076598486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04323279087350532</v>
+        <v>0.03414438847713754</v>
       </c>
       <c r="C7">
-        <v>-0.008784100989037404</v>
+        <v>0.02052902464972814</v>
       </c>
       <c r="D7">
-        <v>0.04624648892480919</v>
+        <v>-0.03658150644271371</v>
       </c>
       <c r="E7">
-        <v>0.002705008293924801</v>
+        <v>-0.02643942551154245</v>
       </c>
       <c r="F7">
-        <v>0.06250127303578801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04916738134962113</v>
+      </c>
+      <c r="G7">
+        <v>0.05119642322711296</v>
+      </c>
+      <c r="H7">
+        <v>0.001250030265011516</v>
+      </c>
+      <c r="I7">
+        <v>0.03679725872881497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.05269693237233831</v>
+        <v>0.02509109813505442</v>
       </c>
       <c r="C8">
-        <v>-0.04997481008791509</v>
+        <v>0.05330361116500216</v>
       </c>
       <c r="D8">
-        <v>0.03715233983795721</v>
+        <v>-0.01197208018612963</v>
       </c>
       <c r="E8">
-        <v>-0.02681647527295689</v>
+        <v>-0.01588785759582119</v>
       </c>
       <c r="F8">
-        <v>0.07124784568177625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07446274752884204</v>
+      </c>
+      <c r="G8">
+        <v>0.04337133216369328</v>
+      </c>
+      <c r="H8">
+        <v>-0.03833900718835333</v>
+      </c>
+      <c r="I8">
+        <v>0.06322596988629864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.07803185332950288</v>
+        <v>0.05884029377069931</v>
       </c>
       <c r="C9">
-        <v>-0.02073310093804372</v>
+        <v>0.04412925170949354</v>
       </c>
       <c r="D9">
-        <v>0.05626208054756875</v>
+        <v>-0.0184059829524735</v>
       </c>
       <c r="E9">
-        <v>-0.04466104524981079</v>
+        <v>-0.0338378341876757</v>
       </c>
       <c r="F9">
-        <v>0.05617514847421247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.0803315103516181</v>
+      </c>
+      <c r="G9">
+        <v>0.02134037019440951</v>
+      </c>
+      <c r="H9">
+        <v>-0.0417498854461429</v>
+      </c>
+      <c r="I9">
+        <v>0.03228062638771031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02697990085830898</v>
+        <v>0.03680969897054928</v>
       </c>
       <c r="C10">
-        <v>0.1451094948107144</v>
+        <v>-0.1661327713634272</v>
       </c>
       <c r="D10">
-        <v>-0.07780239735297326</v>
+        <v>0.0111039981337981</v>
       </c>
       <c r="E10">
-        <v>0.03811548443039266</v>
+        <v>0.02411826444569499</v>
       </c>
       <c r="F10">
-        <v>0.07622220880159812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.06890703880318282</v>
+      </c>
+      <c r="G10">
+        <v>0.02196847074055205</v>
+      </c>
+      <c r="H10">
+        <v>-0.04011194286809058</v>
+      </c>
+      <c r="I10">
+        <v>0.03781509220384204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05736825556464841</v>
+        <v>0.04768265762595016</v>
       </c>
       <c r="C11">
-        <v>-0.01715366710901885</v>
+        <v>0.0340036248476751</v>
       </c>
       <c r="D11">
-        <v>0.01599776488420263</v>
+        <v>0.005504566420685995</v>
       </c>
       <c r="E11">
-        <v>0.006030664991286068</v>
+        <v>-0.007575750830575734</v>
       </c>
       <c r="F11">
-        <v>0.04591849212328406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03931713395160386</v>
+      </c>
+      <c r="G11">
+        <v>0.0009461957390210639</v>
+      </c>
+      <c r="H11">
+        <v>-0.01171856611222657</v>
+      </c>
+      <c r="I11">
+        <v>0.02973867596657274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04599605581198737</v>
+        <v>0.04322178787507067</v>
       </c>
       <c r="C12">
-        <v>-0.01915849224261614</v>
+        <v>0.03099149878855948</v>
       </c>
       <c r="D12">
-        <v>0.01270758836623936</v>
+        <v>-0.006008486508036893</v>
       </c>
       <c r="E12">
-        <v>-0.01104731115566552</v>
+        <v>-0.008005384375074852</v>
       </c>
       <c r="F12">
-        <v>0.02838067459258834</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01412853441257642</v>
+      </c>
+      <c r="G12">
+        <v>0.003603769141977922</v>
+      </c>
+      <c r="H12">
+        <v>-0.004743059940024891</v>
+      </c>
+      <c r="I12">
+        <v>0.01813113802205031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.05876563125767546</v>
+        <v>0.04183846965681207</v>
       </c>
       <c r="C13">
-        <v>-0.02235833316711243</v>
+        <v>0.02951424790677397</v>
       </c>
       <c r="D13">
-        <v>0.0288021419876002</v>
+        <v>0.01489092558324598</v>
       </c>
       <c r="E13">
-        <v>0.03038717993774048</v>
+        <v>-0.008099658423194626</v>
       </c>
       <c r="F13">
-        <v>0.1098976188845229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.1030936443540246</v>
+      </c>
+      <c r="G13">
+        <v>0.03179486612196632</v>
+      </c>
+      <c r="H13">
+        <v>-0.03350437780614014</v>
+      </c>
+      <c r="I13">
+        <v>0.06283568174089776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03416012765874765</v>
+        <v>0.0262122632825515</v>
       </c>
       <c r="C14">
-        <v>-0.01599221394513665</v>
+        <v>0.02476477822975076</v>
       </c>
       <c r="D14">
-        <v>0.04045395695256657</v>
+        <v>-0.005739967458163285</v>
       </c>
       <c r="E14">
-        <v>-0.004669545700175148</v>
+        <v>-0.02771048693120573</v>
       </c>
       <c r="F14">
-        <v>0.02263716708541546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03699520902591338</v>
+      </c>
+      <c r="G14">
+        <v>0.0549211108207846</v>
+      </c>
+      <c r="H14">
+        <v>-0.01717813885390229</v>
+      </c>
+      <c r="I14">
+        <v>0.0174946574941937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04913970735810654</v>
+        <v>0.04186119806932869</v>
       </c>
       <c r="C16">
-        <v>-0.02347255716368284</v>
+        <v>0.03574399329411274</v>
       </c>
       <c r="D16">
-        <v>0.01182243826745174</v>
+        <v>1.736988502704447e-05</v>
       </c>
       <c r="E16">
-        <v>0.001270668348586583</v>
+        <v>-0.005122930998265679</v>
       </c>
       <c r="F16">
-        <v>0.03419674781114547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03420328728522967</v>
+      </c>
+      <c r="G16">
+        <v>0.006830521775781674</v>
+      </c>
+      <c r="H16">
+        <v>-0.004853036438521344</v>
+      </c>
+      <c r="I16">
+        <v>0.03075936720521013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06690451153496831</v>
+        <v>0.05284701771969669</v>
       </c>
       <c r="C19">
-        <v>-0.04409017492753049</v>
+        <v>0.04849854053032419</v>
       </c>
       <c r="D19">
-        <v>0.03051676341812731</v>
+        <v>0.002748008468563247</v>
       </c>
       <c r="E19">
-        <v>0.001695511418616588</v>
+        <v>-0.01621529110252766</v>
       </c>
       <c r="F19">
-        <v>0.08834397918991704</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09601001680425682</v>
+      </c>
+      <c r="G19">
+        <v>0.05006581563332341</v>
+      </c>
+      <c r="H19">
+        <v>-0.02382410524299101</v>
+      </c>
+      <c r="I19">
+        <v>0.06985681279853462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.0317129357019152</v>
+        <v>0.01901884199476958</v>
       </c>
       <c r="C20">
-        <v>-0.02574136396672396</v>
+        <v>0.03076122665497235</v>
       </c>
       <c r="D20">
-        <v>0.04746928930145589</v>
+        <v>-0.005627556810748544</v>
       </c>
       <c r="E20">
-        <v>-0.01961124589470048</v>
+        <v>-0.02054003461190963</v>
       </c>
       <c r="F20">
-        <v>0.06834226584910952</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06573662086721561</v>
+      </c>
+      <c r="G20">
+        <v>0.06045496242722095</v>
+      </c>
+      <c r="H20">
+        <v>-0.01433257125614182</v>
+      </c>
+      <c r="I20">
+        <v>0.07486493764870704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03470705438728246</v>
+        <v>0.0334470201132737</v>
       </c>
       <c r="C21">
-        <v>-0.03712878020494496</v>
+        <v>0.03074493430641672</v>
       </c>
       <c r="D21">
-        <v>0.02564754365455705</v>
+        <v>-0.01155235209047042</v>
       </c>
       <c r="E21">
-        <v>0.005824288194827758</v>
+        <v>-0.005334392789837011</v>
       </c>
       <c r="F21">
-        <v>0.09957838008781275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.0777766766885072</v>
+      </c>
+      <c r="G21">
+        <v>0.01115385738582904</v>
+      </c>
+      <c r="H21">
+        <v>-0.05014107686436547</v>
+      </c>
+      <c r="I21">
+        <v>0.00252765137135346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.04894181982325983</v>
+        <v>0.04038000527580971</v>
       </c>
       <c r="C24">
-        <v>-0.0209410991129842</v>
+        <v>0.0315176522255361</v>
       </c>
       <c r="D24">
-        <v>0.01735092753928448</v>
+        <v>-0.0002198105434311323</v>
       </c>
       <c r="E24">
-        <v>-0.002580773054945325</v>
+        <v>-0.007564418148317974</v>
       </c>
       <c r="F24">
-        <v>0.0440248763760339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.0377362958988513</v>
+      </c>
+      <c r="G24">
+        <v>0.002064121262407782</v>
+      </c>
+      <c r="H24">
+        <v>-0.006921823966165391</v>
+      </c>
+      <c r="I24">
+        <v>0.03248106274147295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.0495731708212942</v>
+        <v>0.04664983350611544</v>
       </c>
       <c r="C25">
-        <v>-0.01531539935317664</v>
+        <v>0.0276752722820436</v>
       </c>
       <c r="D25">
-        <v>0.01533980239289831</v>
+        <v>0.0004425618017333576</v>
       </c>
       <c r="E25">
-        <v>-0.002347963163053041</v>
+        <v>-0.007437041506889209</v>
       </c>
       <c r="F25">
-        <v>0.0403711584301121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04315469211293468</v>
+      </c>
+      <c r="G25">
+        <v>-0.00101929325629509</v>
+      </c>
+      <c r="H25">
+        <v>-0.0114080002378956</v>
+      </c>
+      <c r="I25">
+        <v>0.02217683749780306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02673755164285056</v>
+        <v>0.01508574292506003</v>
       </c>
       <c r="C26">
-        <v>-0.02957628695944264</v>
+        <v>0.03039111561753362</v>
       </c>
       <c r="D26">
-        <v>0.02862791714902524</v>
+        <v>0.004276762269086443</v>
       </c>
       <c r="E26">
-        <v>0.01848669525944854</v>
+        <v>-0.001005376895383015</v>
       </c>
       <c r="F26">
-        <v>0.03131108499269935</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04332243063217527</v>
+      </c>
+      <c r="G26">
+        <v>0.03204941957915771</v>
+      </c>
+      <c r="H26">
+        <v>-0.01324445980087825</v>
+      </c>
+      <c r="I26">
+        <v>0.0310996205495277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1199989028996758</v>
+        <v>0.07048186846059432</v>
       </c>
       <c r="C27">
-        <v>-0.01408333660150634</v>
+        <v>0.02714257487931926</v>
       </c>
       <c r="D27">
-        <v>0.04477937084568357</v>
+        <v>-0.003581436884323179</v>
       </c>
       <c r="E27">
-        <v>-0.02422580526322807</v>
+        <v>-0.03017935987956636</v>
       </c>
       <c r="F27">
-        <v>0.07474066442521902</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.06407121789224264</v>
+      </c>
+      <c r="G27">
+        <v>0.01944033498918202</v>
+      </c>
+      <c r="H27">
+        <v>-0.02621935900248069</v>
+      </c>
+      <c r="I27">
+        <v>0.03640169411527125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.02918901008001694</v>
+        <v>0.05128040263748994</v>
       </c>
       <c r="C28">
-        <v>0.2159328700288906</v>
+        <v>-0.2510482350032008</v>
       </c>
       <c r="D28">
-        <v>-0.12909622169378</v>
+        <v>0.007634950252801026</v>
       </c>
       <c r="E28">
-        <v>0.03643070408015454</v>
+        <v>0.03665786932344776</v>
       </c>
       <c r="F28">
-        <v>0.05492651518610823</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.05999022463263162</v>
+      </c>
+      <c r="G28">
+        <v>0.03593079249635333</v>
+      </c>
+      <c r="H28">
+        <v>-0.04241948620387983</v>
+      </c>
+      <c r="I28">
+        <v>0.0652879741085087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.0304527222601737</v>
+        <v>0.02345017287212157</v>
       </c>
       <c r="C29">
-        <v>-0.01532006082485712</v>
+        <v>0.0224024795605737</v>
       </c>
       <c r="D29">
-        <v>0.0369708427753043</v>
+        <v>-0.008994599989418308</v>
       </c>
       <c r="E29">
-        <v>-0.01601145822918673</v>
+        <v>-0.02930442866735654</v>
       </c>
       <c r="F29">
-        <v>0.02008168345629913</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03283124882863175</v>
+      </c>
+      <c r="G29">
+        <v>0.05469081157893946</v>
+      </c>
+      <c r="H29">
+        <v>-0.02097019460789494</v>
+      </c>
+      <c r="I29">
+        <v>0.001963806622754501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1122122444036879</v>
+        <v>0.08816784185049557</v>
       </c>
       <c r="C30">
-        <v>-0.008942238812111165</v>
+        <v>0.05366330180125142</v>
       </c>
       <c r="D30">
-        <v>0.05689073401428927</v>
+        <v>0.03791443400760967</v>
       </c>
       <c r="E30">
-        <v>0.004304270873952605</v>
+        <v>-0.03205937419642581</v>
       </c>
       <c r="F30">
-        <v>0.1043447307142543</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1048958746861684</v>
+      </c>
+      <c r="G30">
+        <v>0.01220976972671596</v>
+      </c>
+      <c r="H30">
+        <v>0.006463234815197713</v>
+      </c>
+      <c r="I30">
+        <v>0.01976813743353216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06922413910607242</v>
+        <v>0.06226512568186002</v>
       </c>
       <c r="C31">
-        <v>-0.01096867475692418</v>
+        <v>0.0233426612064435</v>
       </c>
       <c r="D31">
-        <v>0.03051959141667913</v>
+        <v>0.01059466849834535</v>
       </c>
       <c r="E31">
-        <v>0.03457568614295015</v>
+        <v>-0.02244169465130891</v>
       </c>
       <c r="F31">
-        <v>-0.0399232497997332</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.006046423217588536</v>
+      </c>
+      <c r="G31">
+        <v>0.04393032220494972</v>
+      </c>
+      <c r="H31">
+        <v>-0.04011016401417566</v>
+      </c>
+      <c r="I31">
+        <v>0.01091205365394231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.06728343225738037</v>
+        <v>0.04055075703551973</v>
       </c>
       <c r="C32">
-        <v>-0.03200819521754248</v>
+        <v>0.04641893166555003</v>
       </c>
       <c r="D32">
-        <v>0.04064024650292378</v>
+        <v>-0.01646178738275364</v>
       </c>
       <c r="E32">
-        <v>-0.01449564115718677</v>
+        <v>-0.03202316172918505</v>
       </c>
       <c r="F32">
-        <v>0.09291578874033204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08234541801216418</v>
+      </c>
+      <c r="G32">
+        <v>0.03011654396496029</v>
+      </c>
+      <c r="H32">
+        <v>-0.02625691588180252</v>
+      </c>
+      <c r="I32">
+        <v>0.05348515358527029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06828504072767938</v>
+        <v>0.05403683274556771</v>
       </c>
       <c r="C33">
-        <v>-0.05140734241602748</v>
+        <v>0.05694197275355448</v>
       </c>
       <c r="D33">
-        <v>0.04949194657474717</v>
+        <v>0.01873051621032736</v>
       </c>
       <c r="E33">
-        <v>0.01101102255647057</v>
+        <v>-0.0067159807144031</v>
       </c>
       <c r="F33">
-        <v>0.06923992256247673</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07565845595197902</v>
+      </c>
+      <c r="G33">
+        <v>0.03993364810890126</v>
+      </c>
+      <c r="H33">
+        <v>-0.03826472880246756</v>
+      </c>
+      <c r="I33">
+        <v>0.03705907297371911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04776530820566359</v>
+        <v>0.04151152783349218</v>
       </c>
       <c r="C34">
-        <v>-0.01693374656809941</v>
+        <v>0.0352567482797797</v>
       </c>
       <c r="D34">
-        <v>0.0212408433043719</v>
+        <v>-0.004964076173572914</v>
       </c>
       <c r="E34">
-        <v>-0.003577329849524064</v>
+        <v>-0.01522491434621696</v>
       </c>
       <c r="F34">
-        <v>0.02932014935923107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03389702069258303</v>
+      </c>
+      <c r="G34">
+        <v>0.004488915793006022</v>
+      </c>
+      <c r="H34">
+        <v>-0.007740423100167263</v>
+      </c>
+      <c r="I34">
+        <v>0.02538565927500038</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01795034535063358</v>
+        <v>0.01575299110801296</v>
       </c>
       <c r="C36">
-        <v>-0.001053995885272861</v>
+        <v>0.005137401416171931</v>
       </c>
       <c r="D36">
-        <v>0.01188764579739745</v>
+        <v>-0.003553446029366903</v>
       </c>
       <c r="E36">
-        <v>-0.003425160756899456</v>
+        <v>-0.009955795608280419</v>
       </c>
       <c r="F36">
-        <v>0.01368589958077194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0229961881295063</v>
+      </c>
+      <c r="G36">
+        <v>0.03646822742450802</v>
+      </c>
+      <c r="H36">
+        <v>-0.02462260542026419</v>
+      </c>
+      <c r="I36">
+        <v>-0.0107466697499406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04405995848166818</v>
+        <v>0.03629181928167755</v>
       </c>
       <c r="C38">
-        <v>-0.006910043326220539</v>
+        <v>0.01613221405221236</v>
       </c>
       <c r="D38">
-        <v>0.01722249493414356</v>
+        <v>-0.00341722028140547</v>
       </c>
       <c r="E38">
-        <v>-0.01763304494007204</v>
+        <v>-0.008707460747071131</v>
       </c>
       <c r="F38">
-        <v>0.02196819923875104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04896570871422101</v>
+      </c>
+      <c r="G38">
+        <v>0.01970143424413236</v>
+      </c>
+      <c r="H38">
+        <v>-0.02724160720762199</v>
+      </c>
+      <c r="I38">
+        <v>-0.01222926325837321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.06992020229380524</v>
+        <v>0.05245355369887733</v>
       </c>
       <c r="C39">
-        <v>-0.01808815490546311</v>
+        <v>0.04961360251386054</v>
       </c>
       <c r="D39">
-        <v>0.02403882988455722</v>
+        <v>0.004683537564640274</v>
       </c>
       <c r="E39">
-        <v>0.01334786322805833</v>
+        <v>-0.0170926687761746</v>
       </c>
       <c r="F39">
-        <v>0.03957048037057886</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05542625203531473</v>
+      </c>
+      <c r="G39">
+        <v>-0.003769414585325326</v>
+      </c>
+      <c r="H39">
+        <v>-0.0194172368734466</v>
+      </c>
+      <c r="I39">
+        <v>0.00809421801183316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07377171418740618</v>
+        <v>0.05543241474798118</v>
       </c>
       <c r="C40">
-        <v>-0.01456995500942103</v>
+        <v>0.04593702227963353</v>
       </c>
       <c r="D40">
-        <v>0.06182255019263792</v>
+        <v>0.02113144696611895</v>
       </c>
       <c r="E40">
-        <v>0.03483047463159924</v>
+        <v>-0.02347664888305501</v>
       </c>
       <c r="F40">
-        <v>0.1084711382594279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.09588988448567111</v>
+      </c>
+      <c r="G40">
+        <v>0.02951984004383699</v>
+      </c>
+      <c r="H40">
+        <v>-0.03268288516068475</v>
+      </c>
+      <c r="I40">
+        <v>0.1121409977416585</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.002141498985288099</v>
+        <v>0.004259478287769899</v>
       </c>
       <c r="C41">
-        <v>-0.01800633834711367</v>
+        <v>0.01089723786285412</v>
       </c>
       <c r="D41">
-        <v>0.03017554449037832</v>
+        <v>0.0006659907171270439</v>
       </c>
       <c r="E41">
-        <v>-0.005993257037013139</v>
+        <v>-0.0110509227718945</v>
       </c>
       <c r="F41">
-        <v>-0.01118440285996669</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.00897107070955709</v>
+      </c>
+      <c r="G41">
+        <v>0.04536373782260297</v>
+      </c>
+      <c r="H41">
+        <v>-0.04208993207982736</v>
+      </c>
+      <c r="I41">
+        <v>0.009573236429270169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1793165467675598</v>
+        <v>0.2055600269245189</v>
       </c>
       <c r="C42">
-        <v>-0.5811349667129605</v>
+        <v>0.2024077764528451</v>
       </c>
       <c r="D42">
-        <v>-0.7137054240514749</v>
+        <v>0.04737523934643277</v>
       </c>
       <c r="E42">
-        <v>0.2597550861053131</v>
+        <v>0.9242563468184343</v>
       </c>
       <c r="F42">
-        <v>-0.05135770691285736</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1621021051307887</v>
+      </c>
+      <c r="G42">
+        <v>-0.01150038511129328</v>
+      </c>
+      <c r="H42">
+        <v>-0.0002781317630753738</v>
+      </c>
+      <c r="I42">
+        <v>0.06185181584716744</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.005889640966587107</v>
+        <v>0.008197319607122756</v>
       </c>
       <c r="C43">
-        <v>-0.02229728566954153</v>
+        <v>0.01338039831178282</v>
       </c>
       <c r="D43">
-        <v>0.0320092728252759</v>
+        <v>0.0031575295127269</v>
       </c>
       <c r="E43">
-        <v>-0.001326172589775463</v>
+        <v>-0.009958361932430959</v>
       </c>
       <c r="F43">
-        <v>0.02132888223126758</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.02404803142126569</v>
+      </c>
+      <c r="G43">
+        <v>0.03432768096584675</v>
+      </c>
+      <c r="H43">
+        <v>-0.02501684725137622</v>
+      </c>
+      <c r="I43">
+        <v>0.0190619958477996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.0442115661742997</v>
+        <v>0.0283061167377963</v>
       </c>
       <c r="C44">
-        <v>-0.04135836600499859</v>
+        <v>0.04368218260931027</v>
       </c>
       <c r="D44">
-        <v>0.04974847615370249</v>
+        <v>-0.001875988530906809</v>
       </c>
       <c r="E44">
-        <v>0.00479619391113631</v>
+        <v>-0.01269572773165602</v>
       </c>
       <c r="F44">
-        <v>0.1147242031223227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1190334052190894</v>
+      </c>
+      <c r="G44">
+        <v>0.08358739900882144</v>
+      </c>
+      <c r="H44">
+        <v>-0.05956151761439635</v>
+      </c>
+      <c r="I44">
+        <v>0.05667313848343392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03186470232875663</v>
+        <v>0.02552902986037365</v>
       </c>
       <c r="C46">
-        <v>-0.01984060692008995</v>
+        <v>0.03692818742698217</v>
       </c>
       <c r="D46">
-        <v>0.03742891737359411</v>
+        <v>0.00377575699789292</v>
       </c>
       <c r="E46">
-        <v>0.0008300187969129693</v>
+        <v>-0.0293035776678935</v>
       </c>
       <c r="F46">
-        <v>0.01614480468223313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04388630722740015</v>
+      </c>
+      <c r="G46">
+        <v>0.05839581278940051</v>
+      </c>
+      <c r="H46">
+        <v>-0.02245915681128141</v>
+      </c>
+      <c r="I46">
+        <v>0.007960565012443906</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09419467847921777</v>
+        <v>0.08762471439787883</v>
       </c>
       <c r="C47">
-        <v>-0.008770646499405716</v>
+        <v>0.02250161399737378</v>
       </c>
       <c r="D47">
-        <v>0.03042599275365562</v>
+        <v>0.004625534929045091</v>
       </c>
       <c r="E47">
-        <v>-0.002149573692485206</v>
+        <v>-0.02653307459686595</v>
       </c>
       <c r="F47">
-        <v>-0.03121523245864126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01944855072406183</v>
+      </c>
+      <c r="G47">
+        <v>0.06225023237905672</v>
+      </c>
+      <c r="H47">
+        <v>-0.03406490543546327</v>
+      </c>
+      <c r="I47">
+        <v>0.03241719285955934</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02077311534994238</v>
+        <v>0.02080592110887099</v>
       </c>
       <c r="C48">
-        <v>-0.01606747140131519</v>
+        <v>0.01833479382663241</v>
       </c>
       <c r="D48">
-        <v>0.02857063921445864</v>
+        <v>-0.0009529448949155466</v>
       </c>
       <c r="E48">
-        <v>-0.0009672470049238809</v>
+        <v>-0.01360697826473618</v>
       </c>
       <c r="F48">
-        <v>0.02214683497588116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02637206506081317</v>
+      </c>
+      <c r="G48">
+        <v>0.02450991856295161</v>
+      </c>
+      <c r="H48">
+        <v>-0.0180612635062756</v>
+      </c>
+      <c r="I48">
+        <v>0.008794931188414127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09249702063495636</v>
+        <v>0.0885846632887656</v>
       </c>
       <c r="C50">
-        <v>-0.02591463452261976</v>
+        <v>0.04222216880369221</v>
       </c>
       <c r="D50">
-        <v>0.03537057246167632</v>
+        <v>-0.009709283090019402</v>
       </c>
       <c r="E50">
-        <v>0.007590862508599686</v>
+        <v>-0.02222531190329166</v>
       </c>
       <c r="F50">
-        <v>-0.03555457727654721</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01316754276828201</v>
+      </c>
+      <c r="G50">
+        <v>0.04020476132802808</v>
+      </c>
+      <c r="H50">
+        <v>0.005905750272453726</v>
+      </c>
+      <c r="I50">
+        <v>-0.00536229667415994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05484424448638423</v>
+        <v>0.03864191776391111</v>
       </c>
       <c r="C51">
-        <v>0.01708637819817637</v>
+        <v>-0.005240491691999718</v>
       </c>
       <c r="D51">
-        <v>0.02065951482881372</v>
+        <v>0.01161660676460223</v>
       </c>
       <c r="E51">
-        <v>0.03324730335357211</v>
+        <v>-0.01234968495606415</v>
       </c>
       <c r="F51">
-        <v>0.05275630757352145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0850989349636517</v>
+      </c>
+      <c r="G51">
+        <v>0.06181539486630919</v>
+      </c>
+      <c r="H51">
+        <v>-0.05731314471223287</v>
+      </c>
+      <c r="I51">
+        <v>0.03228029030428983</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1341849460322747</v>
+        <v>0.1247143839958331</v>
       </c>
       <c r="C53">
-        <v>-0.006800097589565913</v>
+        <v>0.04129672675015462</v>
       </c>
       <c r="D53">
-        <v>0.05762910828322641</v>
+        <v>0.005497405278004516</v>
       </c>
       <c r="E53">
-        <v>0.005525632458559208</v>
+        <v>-0.05054102140447644</v>
       </c>
       <c r="F53">
-        <v>-0.06233270383923706</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.0472671053821482</v>
+      </c>
+      <c r="G53">
+        <v>0.009431573236498968</v>
+      </c>
+      <c r="H53">
+        <v>-0.02759237182320009</v>
+      </c>
+      <c r="I53">
+        <v>0.04051819202733134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02697767241796648</v>
+        <v>0.02612330154991701</v>
       </c>
       <c r="C54">
-        <v>0.0008095620662051325</v>
+        <v>0.00827560139559028</v>
       </c>
       <c r="D54">
-        <v>0.0326165310966603</v>
+        <v>-0.004560416800678932</v>
       </c>
       <c r="E54">
-        <v>-0.008659908538699773</v>
+        <v>-0.03059702747810816</v>
       </c>
       <c r="F54">
-        <v>0.02668214668743969</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03206675207153902</v>
+      </c>
+      <c r="G54">
+        <v>0.05281499870883027</v>
+      </c>
+      <c r="H54">
+        <v>-0.03406867879024716</v>
+      </c>
+      <c r="I54">
+        <v>0.0007314110629044556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1073927848085306</v>
+        <v>0.0986141584931791</v>
       </c>
       <c r="C55">
-        <v>0.002718894222082513</v>
+        <v>0.0351410078523972</v>
       </c>
       <c r="D55">
-        <v>0.02614612981384281</v>
+        <v>-0.01234169838711458</v>
       </c>
       <c r="E55">
-        <v>-0.03968891433751321</v>
+        <v>-0.0348871881031191</v>
       </c>
       <c r="F55">
-        <v>-0.02714706991036404</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.03711674865345873</v>
+      </c>
+      <c r="G55">
+        <v>0.02833207149493201</v>
+      </c>
+      <c r="H55">
+        <v>0.00865419163483252</v>
+      </c>
+      <c r="I55">
+        <v>0.01955789407129871</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1695914096841377</v>
+        <v>0.1649843642698662</v>
       </c>
       <c r="C56">
-        <v>0.04619884494519626</v>
+        <v>0.02771113042072504</v>
       </c>
       <c r="D56">
-        <v>0.07117364145690498</v>
+        <v>0.002512750459836329</v>
       </c>
       <c r="E56">
-        <v>-0.02689887818878346</v>
+        <v>-0.08436216675212507</v>
       </c>
       <c r="F56">
-        <v>-0.1043838261339045</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09125779530401869</v>
+      </c>
+      <c r="G56">
+        <v>-0.02917187462733161</v>
+      </c>
+      <c r="H56">
+        <v>0.01501729745586738</v>
+      </c>
+      <c r="I56">
+        <v>0.0402470412039713</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08102727560532229</v>
+        <v>0.06370215437942449</v>
       </c>
       <c r="C57">
-        <v>-0.01906008319551504</v>
+        <v>0.03204424141773946</v>
       </c>
       <c r="D57">
-        <v>0.0416300241068053</v>
+        <v>0.02078281739912847</v>
       </c>
       <c r="E57">
-        <v>0.02940315643381396</v>
+        <v>-0.005789572090512359</v>
       </c>
       <c r="F57">
-        <v>0.05394910395805799</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.07225570219459906</v>
+      </c>
+      <c r="G57">
+        <v>0.01576252330646343</v>
+      </c>
+      <c r="H57">
+        <v>-0.01655137031425504</v>
+      </c>
+      <c r="I57">
+        <v>0.02365493267405977</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2042293674608835</v>
+        <v>0.2074326496118029</v>
       </c>
       <c r="C58">
-        <v>-0.05639339378880889</v>
+        <v>0.1126750166547791</v>
       </c>
       <c r="D58">
-        <v>0.04759873395435944</v>
+        <v>0.09350912294729023</v>
       </c>
       <c r="E58">
-        <v>0.05296429869633219</v>
+        <v>0.03858604579514342</v>
       </c>
       <c r="F58">
-        <v>0.1331140940949944</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2818664175404466</v>
+      </c>
+      <c r="G58">
+        <v>0.3996556725676701</v>
+      </c>
+      <c r="H58">
+        <v>0.3009709095704616</v>
+      </c>
+      <c r="I58">
+        <v>-0.7033620268141835</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02760144117160999</v>
+        <v>0.05123637614695897</v>
       </c>
       <c r="C59">
-        <v>0.1831245659714997</v>
+        <v>-0.2062651941066522</v>
       </c>
       <c r="D59">
-        <v>-0.08071879311533449</v>
+        <v>0.0223696460183209</v>
       </c>
       <c r="E59">
-        <v>0.02691016081583441</v>
+        <v>0.006640251032575136</v>
       </c>
       <c r="F59">
-        <v>0.05387402519648074</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.07082518949471059</v>
+      </c>
+      <c r="G59">
+        <v>-0.004616571874412801</v>
+      </c>
+      <c r="H59">
+        <v>-0.01396245748103085</v>
+      </c>
+      <c r="I59">
+        <v>0.009558997558998868</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1824485188494483</v>
+        <v>0.1912807205447395</v>
       </c>
       <c r="C60">
-        <v>0.07547045463597948</v>
+        <v>-0.04835754832842674</v>
       </c>
       <c r="D60">
-        <v>0.01464817881431641</v>
+        <v>0.05073774311103049</v>
       </c>
       <c r="E60">
-        <v>0.07124418707332346</v>
+        <v>-0.0130753796127724</v>
       </c>
       <c r="F60">
-        <v>0.1815364031193191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1994075962107317</v>
+      </c>
+      <c r="G60">
+        <v>-0.3432330025690007</v>
+      </c>
+      <c r="H60">
+        <v>0.02323896607367303</v>
+      </c>
+      <c r="I60">
+        <v>-0.01862783608472321</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04150956628333892</v>
+        <v>0.0393315927333057</v>
       </c>
       <c r="C61">
-        <v>-0.01484969453366083</v>
+        <v>0.03461163551819351</v>
       </c>
       <c r="D61">
-        <v>0.01362641431878501</v>
+        <v>-0.002285335829367487</v>
       </c>
       <c r="E61">
-        <v>-0.005288917356600535</v>
+        <v>-0.01096987207621485</v>
       </c>
       <c r="F61">
-        <v>0.0346103271862031</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03636948550650237</v>
+      </c>
+      <c r="G61">
+        <v>-0.007806552539084116</v>
+      </c>
+      <c r="H61">
+        <v>-0.009771298165902938</v>
+      </c>
+      <c r="I61">
+        <v>-0.002604557984140806</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04021992953510723</v>
+        <v>0.03035174487075235</v>
       </c>
       <c r="C63">
-        <v>-0.01018792823319427</v>
+        <v>0.02545739141027525</v>
       </c>
       <c r="D63">
-        <v>0.02893328935366892</v>
+        <v>0.0004640564969148432</v>
       </c>
       <c r="E63">
-        <v>0.00275969288304019</v>
+        <v>-0.01775893263313513</v>
       </c>
       <c r="F63">
-        <v>0.03799896168334486</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03058977844597391</v>
+      </c>
+      <c r="G63">
+        <v>0.04910445903774142</v>
+      </c>
+      <c r="H63">
+        <v>-0.005863415647080738</v>
+      </c>
+      <c r="I63">
+        <v>0.03117076486867966</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.0603505138464563</v>
+        <v>0.05652082925315798</v>
       </c>
       <c r="C64">
-        <v>-0.0253225022101476</v>
+        <v>0.03565443329107769</v>
       </c>
       <c r="D64">
-        <v>0.03052150098879329</v>
+        <v>-0.01080436367528518</v>
       </c>
       <c r="E64">
-        <v>-0.03038306682466511</v>
+        <v>-0.01887081481200387</v>
       </c>
       <c r="F64">
-        <v>0.03322024828419898</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.0383112631380518</v>
+      </c>
+      <c r="G64">
+        <v>0.02492329690662935</v>
+      </c>
+      <c r="H64">
+        <v>-0.05909644583847207</v>
+      </c>
+      <c r="I64">
+        <v>0.03660973257890294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02821404067931278</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01044924354943703</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.004754971285851167</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.005935648795255519</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.002751158792989364</v>
+      </c>
+      <c r="G65">
+        <v>-0.02223872097535212</v>
+      </c>
+      <c r="H65">
+        <v>0.0186560958126015</v>
+      </c>
+      <c r="I65">
+        <v>-0.0005477854942091928</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.0773647885214271</v>
+        <v>0.06642948486855545</v>
       </c>
       <c r="C66">
-        <v>-0.02444192284593332</v>
+        <v>0.06038014742538388</v>
       </c>
       <c r="D66">
-        <v>0.05490136059428785</v>
+        <v>0.01199001656723702</v>
       </c>
       <c r="E66">
-        <v>-0.002268593235837557</v>
+        <v>-0.04341675808422557</v>
       </c>
       <c r="F66">
-        <v>0.07312413620892576</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06743883501367348</v>
+      </c>
+      <c r="G66">
+        <v>-0.008473224698931621</v>
+      </c>
+      <c r="H66">
+        <v>-0.005312280313056815</v>
+      </c>
+      <c r="I66">
+        <v>0.04837551431373521</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05364398624149264</v>
+        <v>0.04918903960421434</v>
       </c>
       <c r="C67">
-        <v>0.0153389421544929</v>
+        <v>-0.003362087902060911</v>
       </c>
       <c r="D67">
-        <v>0.0007820095431756418</v>
+        <v>0.002225178521060407</v>
       </c>
       <c r="E67">
-        <v>-0.005118221159156985</v>
+        <v>-0.007794210536212643</v>
       </c>
       <c r="F67">
-        <v>0.0174847344407698</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03491720251980203</v>
+      </c>
+      <c r="G67">
+        <v>-0.0001038321375034848</v>
+      </c>
+      <c r="H67">
+        <v>-0.04047480856448879</v>
+      </c>
+      <c r="I67">
+        <v>-0.02637082105224409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.05032059558480345</v>
+        <v>0.06251134387134322</v>
       </c>
       <c r="C68">
-        <v>0.2134725288313717</v>
+        <v>-0.2389939779257004</v>
       </c>
       <c r="D68">
-        <v>-0.1223360028116821</v>
+        <v>0.02116686680346717</v>
       </c>
       <c r="E68">
-        <v>0.03606913806512444</v>
+        <v>0.0243170064859362</v>
       </c>
       <c r="F68">
-        <v>0.06443592537800995</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.05682072176399847</v>
+      </c>
+      <c r="G68">
+        <v>0.01361856877744726</v>
+      </c>
+      <c r="H68">
+        <v>0.004353044234844779</v>
+      </c>
+      <c r="I68">
+        <v>0.02568752998445836</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07776687834904435</v>
+        <v>0.07147933416564128</v>
       </c>
       <c r="C69">
-        <v>0.002478565896588339</v>
+        <v>0.02135026863888326</v>
       </c>
       <c r="D69">
-        <v>0.0283774057272775</v>
+        <v>0.006323439347973117</v>
       </c>
       <c r="E69">
-        <v>-3.654660972182626e-05</v>
+        <v>-0.0305562780317408</v>
       </c>
       <c r="F69">
-        <v>-0.01487522111730083</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.003147245181654991</v>
+      </c>
+      <c r="G69">
+        <v>0.03657945899595655</v>
+      </c>
+      <c r="H69">
+        <v>-0.02268499308326672</v>
+      </c>
+      <c r="I69">
+        <v>0.01623688563984835</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.04408159265360056</v>
+        <v>0.0573508534200429</v>
       </c>
       <c r="C71">
-        <v>0.2646448878016465</v>
+        <v>-0.2651961577278232</v>
       </c>
       <c r="D71">
-        <v>-0.1413618007146391</v>
+        <v>0.0248517879709351</v>
       </c>
       <c r="E71">
-        <v>0.07079441730034162</v>
+        <v>0.03878085200796278</v>
       </c>
       <c r="F71">
-        <v>0.0846760918852852</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.07187456069906487</v>
+      </c>
+      <c r="G71">
+        <v>0.02772597145260908</v>
+      </c>
+      <c r="H71">
+        <v>-0.02194182430749861</v>
+      </c>
+      <c r="I71">
+        <v>0.03107344714234676</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1327591383718867</v>
+        <v>0.1318594845675511</v>
       </c>
       <c r="C72">
-        <v>0.03191895417734423</v>
+        <v>0.03777344972437299</v>
       </c>
       <c r="D72">
-        <v>0.05095693419597996</v>
+        <v>0.008859394663227072</v>
       </c>
       <c r="E72">
-        <v>0.0007897489401485183</v>
+        <v>-0.07153690675363897</v>
       </c>
       <c r="F72">
-        <v>0.0716065354783923</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.0732605334444293</v>
+      </c>
+      <c r="G72">
+        <v>-0.05632954849172283</v>
+      </c>
+      <c r="H72">
+        <v>0.03202644286828085</v>
+      </c>
+      <c r="I72">
+        <v>-0.1432041900724529</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2738542575529744</v>
+        <v>0.2695790059477956</v>
       </c>
       <c r="C73">
-        <v>0.1202703445274612</v>
+        <v>-0.07079381824003687</v>
       </c>
       <c r="D73">
-        <v>-0.04946326209881091</v>
+        <v>0.08912323699222598</v>
       </c>
       <c r="E73">
-        <v>0.1085467172450621</v>
+        <v>0.03535011308648153</v>
       </c>
       <c r="F73">
-        <v>0.3041299498387922</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2851946713688154</v>
+      </c>
+      <c r="G73">
+        <v>-0.5173346677154597</v>
+      </c>
+      <c r="H73">
+        <v>0.08599326793949794</v>
+      </c>
+      <c r="I73">
+        <v>-0.0948656417670234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1506336214502133</v>
+        <v>0.1487821815752792</v>
       </c>
       <c r="C74">
-        <v>0.0009425725167504255</v>
+        <v>0.03854303661415737</v>
       </c>
       <c r="D74">
-        <v>0.03656363405179788</v>
+        <v>0.01065194605472435</v>
       </c>
       <c r="E74">
-        <v>0.002612670204854857</v>
+        <v>-0.04678539820351794</v>
       </c>
       <c r="F74">
-        <v>-0.05189730964541246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07011840996536785</v>
+      </c>
+      <c r="G74">
+        <v>-0.0235990945224464</v>
+      </c>
+      <c r="H74">
+        <v>0.02051287868947008</v>
+      </c>
+      <c r="I74">
+        <v>0.08271697502864316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2288442802560602</v>
+        <v>0.2506191439068171</v>
       </c>
       <c r="C75">
-        <v>0.03787866832839883</v>
+        <v>0.03247722316313485</v>
       </c>
       <c r="D75">
-        <v>0.08356178725771558</v>
+        <v>0.02935200736460203</v>
       </c>
       <c r="E75">
-        <v>0.0092559366927532</v>
+        <v>-0.1112999590911375</v>
       </c>
       <c r="F75">
-        <v>-0.1444449151222353</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1452786418773048</v>
+      </c>
+      <c r="G75">
+        <v>-0.01595838142219585</v>
+      </c>
+      <c r="H75">
+        <v>-0.01582092459037922</v>
+      </c>
+      <c r="I75">
+        <v>0.04015026809489441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.254536751306002</v>
+        <v>0.2645499835727987</v>
       </c>
       <c r="C76">
-        <v>0.06911512528706616</v>
+        <v>0.02351373642359416</v>
       </c>
       <c r="D76">
-        <v>0.07805744628487521</v>
+        <v>-0.008735523377430174</v>
       </c>
       <c r="E76">
-        <v>-0.05797853436465503</v>
+        <v>-0.1323197090558618</v>
       </c>
       <c r="F76">
-        <v>-0.1390656777632089</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1826793719077191</v>
+      </c>
+      <c r="G76">
+        <v>-0.02032047696308672</v>
+      </c>
+      <c r="H76">
+        <v>0.0697299403137807</v>
+      </c>
+      <c r="I76">
+        <v>0.05474909774939888</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1392402596925017</v>
+        <v>0.1170080415728163</v>
       </c>
       <c r="C77">
-        <v>-0.06414897857118106</v>
+        <v>0.0746967753369595</v>
       </c>
       <c r="D77">
-        <v>0.008746706200055479</v>
+        <v>0.008603023733894703</v>
       </c>
       <c r="E77">
-        <v>0.01683179240972452</v>
+        <v>0.04729505952509841</v>
       </c>
       <c r="F77">
-        <v>0.1673516794079623</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1695715905349118</v>
+      </c>
+      <c r="G77">
+        <v>0.2109830727609848</v>
+      </c>
+      <c r="H77">
+        <v>0.001062279744931635</v>
+      </c>
+      <c r="I77">
+        <v>0.2458774607178324</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.09112461571433694</v>
+        <v>0.06914797731301323</v>
       </c>
       <c r="C78">
-        <v>-0.06198913154407941</v>
+        <v>0.07019235130249978</v>
       </c>
       <c r="D78">
-        <v>0.03973256041196601</v>
+        <v>-0.002712138800431291</v>
       </c>
       <c r="E78">
-        <v>-0.00721021288834551</v>
+        <v>-0.01169752078502482</v>
       </c>
       <c r="F78">
-        <v>0.0480062390861529</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.07533291039262317</v>
+      </c>
+      <c r="G78">
+        <v>0.01875064404474619</v>
+      </c>
+      <c r="H78">
+        <v>-0.01960223738986946</v>
+      </c>
+      <c r="I78">
+        <v>0.0301292646472594</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1086129166543457</v>
+        <v>0.1422931950627041</v>
       </c>
       <c r="C80">
-        <v>-0.03625344821981932</v>
+        <v>-0.05929526756309231</v>
       </c>
       <c r="D80">
-        <v>-0.2997888834995507</v>
+        <v>-0.9744113813273307</v>
       </c>
       <c r="E80">
-        <v>-0.9222735114480139</v>
+        <v>0.05144060700757589</v>
       </c>
       <c r="F80">
-        <v>0.08219955319135797</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.04671528542560458</v>
+      </c>
+      <c r="G80">
+        <v>-0.03411526221348801</v>
+      </c>
+      <c r="H80">
+        <v>-0.02929156724866864</v>
+      </c>
+      <c r="I80">
+        <v>-0.09463113581113411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1552018947112259</v>
+        <v>0.1826796882816361</v>
       </c>
       <c r="C81">
-        <v>0.03067009287996972</v>
+        <v>0.01587610782931663</v>
       </c>
       <c r="D81">
-        <v>0.04665774763144542</v>
+        <v>0.006808042332926623</v>
       </c>
       <c r="E81">
-        <v>-0.01485676693874107</v>
+        <v>-0.08902372020776356</v>
       </c>
       <c r="F81">
-        <v>-0.1787369779732907</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1577822705206817</v>
+      </c>
+      <c r="G81">
+        <v>0.01318406227700821</v>
+      </c>
+      <c r="H81">
+        <v>0.02505817317436415</v>
+      </c>
+      <c r="I81">
+        <v>0.005461726208542364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.08688995498062239</v>
+        <v>0.06693877631022792</v>
       </c>
       <c r="C83">
-        <v>-0.08898606359759499</v>
+        <v>0.05461359861701331</v>
       </c>
       <c r="D83">
-        <v>0.01269391109502827</v>
+        <v>0.01012119739123621</v>
       </c>
       <c r="E83">
-        <v>0.02123629602340122</v>
+        <v>0.02186369069596101</v>
       </c>
       <c r="F83">
-        <v>0.01833013688704367</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04778815164327916</v>
+      </c>
+      <c r="G83">
+        <v>0.03138337640954485</v>
+      </c>
+      <c r="H83">
+        <v>-0.0601355505767673</v>
+      </c>
+      <c r="I83">
+        <v>0.04189263980984331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2401075845109476</v>
+        <v>0.2519131798849985</v>
       </c>
       <c r="C85">
-        <v>-0.00449785707772308</v>
+        <v>0.06148774272459346</v>
       </c>
       <c r="D85">
-        <v>0.07950603990588258</v>
+        <v>0.009997502149333402</v>
       </c>
       <c r="E85">
-        <v>-0.05383727343052421</v>
+        <v>-0.1047765428061506</v>
       </c>
       <c r="F85">
-        <v>-0.1628890080547195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1856739808546109</v>
+      </c>
+      <c r="G85">
+        <v>0.02568433354887927</v>
+      </c>
+      <c r="H85">
+        <v>0.01822316840669914</v>
+      </c>
+      <c r="I85">
+        <v>0.0744124776821945</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04297241466486429</v>
+        <v>0.03017600148032288</v>
       </c>
       <c r="C86">
-        <v>-0.04616692049137939</v>
+        <v>0.05467527471775821</v>
       </c>
       <c r="D86">
-        <v>0.04400991934418938</v>
+        <v>0.00276069094352794</v>
       </c>
       <c r="E86">
-        <v>0.00726902766099737</v>
+        <v>-0.01150593922501651</v>
       </c>
       <c r="F86">
-        <v>0.07121214840309507</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.07932564269035643</v>
+      </c>
+      <c r="G86">
+        <v>0.05702394560783305</v>
+      </c>
+      <c r="H86">
+        <v>-0.01544251256633265</v>
+      </c>
+      <c r="I86">
+        <v>0.05550567847289425</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01823704118216901</v>
+        <v>0.0253817019744177</v>
       </c>
       <c r="C87">
-        <v>0.03516042260841301</v>
+        <v>-0.006438768995405224</v>
       </c>
       <c r="D87">
-        <v>-0.0171707692798131</v>
+        <v>-0.003454772552358914</v>
       </c>
       <c r="E87">
-        <v>0.007125879829605005</v>
+        <v>0.003314085415074377</v>
       </c>
       <c r="F87">
-        <v>0.09846856092298506</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.107285255517653</v>
+      </c>
+      <c r="G87">
+        <v>0.02639931458647363</v>
+      </c>
+      <c r="H87">
+        <v>0.01507791475042486</v>
+      </c>
+      <c r="I87">
+        <v>0.03402668660835593</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02912687026321636</v>
+        <v>0.03494435212684849</v>
       </c>
       <c r="C88">
-        <v>-0.01234475906174769</v>
+        <v>0.006557109198414349</v>
       </c>
       <c r="D88">
-        <v>0.01671356548807809</v>
+        <v>-0.004893989372225687</v>
       </c>
       <c r="E88">
-        <v>-0.02430591978034721</v>
+        <v>-0.01135047365321304</v>
       </c>
       <c r="F88">
-        <v>-0.03204738715520933</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.02110563281035703</v>
+      </c>
+      <c r="G88">
+        <v>0.03120106625226185</v>
+      </c>
+      <c r="H88">
+        <v>-0.04902447858428814</v>
+      </c>
+      <c r="I88">
+        <v>-0.001927238142681189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.06187077477929759</v>
+        <v>0.09471829283104774</v>
       </c>
       <c r="C89">
-        <v>0.3025229968676119</v>
+        <v>-0.3854978879248316</v>
       </c>
       <c r="D89">
-        <v>-0.2190628582781364</v>
+        <v>0.05429521598242778</v>
       </c>
       <c r="E89">
-        <v>0.09432298417344978</v>
+        <v>0.05084277377877482</v>
       </c>
       <c r="F89">
-        <v>0.02899813120847788</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.04450770248312585</v>
+      </c>
+      <c r="G89">
+        <v>0.08166880815331901</v>
+      </c>
+      <c r="H89">
+        <v>-0.04478081506530573</v>
+      </c>
+      <c r="I89">
+        <v>0.07066308454060789</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.04911353122416583</v>
+        <v>0.06018579853410182</v>
       </c>
       <c r="C90">
-        <v>0.2667591728158732</v>
+        <v>-0.3377864410709587</v>
       </c>
       <c r="D90">
-        <v>-0.193829440127771</v>
+        <v>0.02837387514705087</v>
       </c>
       <c r="E90">
-        <v>0.03220114425842632</v>
+        <v>0.04872724658175925</v>
       </c>
       <c r="F90">
-        <v>0.06389039458854225</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.03585797877059648</v>
+      </c>
+      <c r="G90">
+        <v>0.05754443765061898</v>
+      </c>
+      <c r="H90">
+        <v>-0.02563962508419678</v>
+      </c>
+      <c r="I90">
+        <v>0.04700614220382426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2727066952942959</v>
+        <v>0.2868036879833999</v>
       </c>
       <c r="C91">
-        <v>-0.004195579296265285</v>
+        <v>0.06608459508305634</v>
       </c>
       <c r="D91">
-        <v>0.07753883697238022</v>
+        <v>0.0164005774040052</v>
       </c>
       <c r="E91">
-        <v>-0.03886634161153274</v>
+        <v>-0.09800965295643657</v>
       </c>
       <c r="F91">
-        <v>-0.2751892058763164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2697755300746977</v>
+      </c>
+      <c r="G91">
+        <v>0.004934152512378659</v>
+      </c>
+      <c r="H91">
+        <v>0.05306558197849845</v>
+      </c>
+      <c r="I91">
+        <v>0.06765267000604111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.08075630982103177</v>
+        <v>0.1344627600378085</v>
       </c>
       <c r="C92">
-        <v>0.2521313738326829</v>
+        <v>-0.3772963230724104</v>
       </c>
       <c r="D92">
-        <v>-0.2743177486764313</v>
+        <v>0.01650278176367222</v>
       </c>
       <c r="E92">
-        <v>0.02773038936625095</v>
+        <v>0.08305151937928855</v>
       </c>
       <c r="F92">
-        <v>-0.1093060295502842</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1206339383508645</v>
+      </c>
+      <c r="G92">
+        <v>0.326827473797761</v>
+      </c>
+      <c r="H92">
+        <v>-0.00860637878783177</v>
+      </c>
+      <c r="I92">
+        <v>-0.05946665149692306</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.04124187984368078</v>
+        <v>0.07667110005716984</v>
       </c>
       <c r="C93">
-        <v>0.3170636209385399</v>
+        <v>-0.4028503504885936</v>
       </c>
       <c r="D93">
-        <v>-0.232625285141784</v>
+        <v>0.04340388877984798</v>
       </c>
       <c r="E93">
-        <v>0.04648442617858828</v>
+        <v>0.08113324781376312</v>
       </c>
       <c r="F93">
-        <v>-0.009929833437573473</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.001379581679040758</v>
+      </c>
+      <c r="G93">
+        <v>0.02208107308089094</v>
+      </c>
+      <c r="H93">
+        <v>-0.05389148371682832</v>
+      </c>
+      <c r="I93">
+        <v>-0.01047503659655935</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2829126938469244</v>
+        <v>0.3137952703004386</v>
       </c>
       <c r="C94">
-        <v>0.09421681056399081</v>
+        <v>-0.0267304206323933</v>
       </c>
       <c r="D94">
-        <v>-0.009548057927953209</v>
+        <v>0.04664655199091765</v>
       </c>
       <c r="E94">
-        <v>-0.0001130015133806665</v>
+        <v>-0.1091035594652171</v>
       </c>
       <c r="F94">
-        <v>-0.3194858626532198</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2999559414332012</v>
+      </c>
+      <c r="G94">
+        <v>0.0909966205374724</v>
+      </c>
+      <c r="H94">
+        <v>0.2067462619653637</v>
+      </c>
+      <c r="I94">
+        <v>0.01649863373676803</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1662887827549021</v>
+        <v>0.1326084620143354</v>
       </c>
       <c r="C95">
-        <v>-0.06181125091660244</v>
+        <v>0.06312682720408405</v>
       </c>
       <c r="D95">
-        <v>0.03599399552425079</v>
+        <v>0.07920313947484477</v>
       </c>
       <c r="E95">
-        <v>0.0688486495782996</v>
+        <v>-0.0273901565344328</v>
       </c>
       <c r="F95">
-        <v>-0.3910958260383143</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1064083115419386</v>
+      </c>
+      <c r="G95">
+        <v>-0.009474104072845392</v>
+      </c>
+      <c r="H95">
+        <v>-0.8806447206262934</v>
+      </c>
+      <c r="I95">
+        <v>-0.3437354964616927</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2109706229123741</v>
+        <v>0.2103715007432045</v>
       </c>
       <c r="C98">
-        <v>0.06732143376408287</v>
+        <v>-0.05710822430483797</v>
       </c>
       <c r="D98">
-        <v>-0.03673001232757092</v>
+        <v>0.06340602506240643</v>
       </c>
       <c r="E98">
-        <v>0.08871360363588783</v>
+        <v>0.02569720584002552</v>
       </c>
       <c r="F98">
-        <v>0.08584257530756487</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1684840161912147</v>
+      </c>
+      <c r="G98">
+        <v>-0.3567462835066506</v>
+      </c>
+      <c r="H98">
+        <v>0.03210884996559352</v>
+      </c>
+      <c r="I98">
+        <v>-0.1020926528629426</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.03044430997669227</v>
+        <v>0.01757419644167816</v>
       </c>
       <c r="C101">
-        <v>-0.0145776856219341</v>
+        <v>0.03339424411189345</v>
       </c>
       <c r="D101">
-        <v>0.03775230380421063</v>
+        <v>-0.004721681910717384</v>
       </c>
       <c r="E101">
-        <v>-0.01645665864284039</v>
+        <v>-0.03584505442622014</v>
       </c>
       <c r="F101">
-        <v>0.0209702962812966</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.06467453036602472</v>
+      </c>
+      <c r="G101">
+        <v>0.1157667417396946</v>
+      </c>
+      <c r="H101">
+        <v>0.01601194337150973</v>
+      </c>
+      <c r="I101">
+        <v>-0.1190756419249199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.09961009743455793</v>
+        <v>0.1186486529418956</v>
       </c>
       <c r="C102">
-        <v>-0.006051295078340807</v>
+        <v>0.02857241339241389</v>
       </c>
       <c r="D102">
-        <v>0.05298391107291473</v>
+        <v>-0.004137340861104199</v>
       </c>
       <c r="E102">
-        <v>-0.03979586247752836</v>
+        <v>-0.05124605703358961</v>
       </c>
       <c r="F102">
-        <v>-0.09550713420730603</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1129005105105415</v>
+      </c>
+      <c r="G102">
+        <v>0.005340720171003057</v>
+      </c>
+      <c r="H102">
+        <v>-0.001049540690186284</v>
+      </c>
+      <c r="I102">
+        <v>0.04607273685013191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02022618132622935</v>
+        <v>0.02873570712232371</v>
       </c>
       <c r="C103">
-        <v>-0.005412243124909409</v>
+        <v>0.01108860127860031</v>
       </c>
       <c r="D103">
-        <v>0.01617227709543613</v>
+        <v>-0.008917228994881012</v>
       </c>
       <c r="E103">
-        <v>-0.006745538543500565</v>
+        <v>-0.0183935890867956</v>
       </c>
       <c r="F103">
-        <v>-0.03347636995037909</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.02607086751550622</v>
+      </c>
+      <c r="G103">
+        <v>0.01795301105574499</v>
+      </c>
+      <c r="H103">
+        <v>-0.007783403587832373</v>
+      </c>
+      <c r="I103">
+        <v>0.01450235619355249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
